--- a/SupplementaryFile1.xlsx
+++ b/SupplementaryFile1.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23808"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A396AB0D-028B-45B2-9F13-5A54C958596D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AC37277D-1228-41ED-8734-65F5697E9804}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accession numbers" sheetId="2" r:id="rId1"/>
     <sheet name="SRP14 identity matrix" sheetId="1" r:id="rId2"/>
-    <sheet name="clusters" sheetId="3" r:id="rId3"/>
-    <sheet name="stats" sheetId="4" r:id="rId4"/>
+    <sheet name="identity matrix + yeast" sheetId="5" r:id="rId3"/>
+    <sheet name="clusters" sheetId="3" r:id="rId4"/>
+    <sheet name="stats" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>accession number</t>
   </si>
@@ -61,30 +62,33 @@
     <t>Pan paniscus</t>
   </si>
   <si>
+    <t>BAG70205.1</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>humans</t>
+  </si>
+  <si>
     <t>G1PG47_MYOLU</t>
   </si>
   <si>
-    <t>Homo sapiens</t>
-  </si>
-  <si>
-    <t>humans</t>
+    <t>Myotis lucifugus</t>
+  </si>
+  <si>
+    <t>vespertilionids</t>
+  </si>
+  <si>
+    <t>XP_006093069.1</t>
+  </si>
+  <si>
+    <t>Myotis lucifugus X6</t>
   </si>
   <si>
     <t>EPQ10995.1</t>
   </si>
   <si>
-    <t>Myotis lucifugus</t>
-  </si>
-  <si>
-    <t>vespertilionids</t>
-  </si>
-  <si>
-    <t>XP_006093069.1</t>
-  </si>
-  <si>
-    <t>Myotis lucifugus X6</t>
-  </si>
-  <si>
     <t>Myotis brandtii</t>
   </si>
   <si>
@@ -122,6 +126,9 @@
   </si>
   <si>
     <t>Pongo abelii</t>
+  </si>
+  <si>
+    <t>Saccharomyces pombe</t>
   </si>
   <si>
     <t>cluster</t>
@@ -186,13 +193,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CFD32B-A94F-4454-9A07-151A3DB2EF30}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -597,10 +607,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -608,46 +618,46 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -657,7 +667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,15 +676,15 @@
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -686,22 +696,23 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -739,9 +750,9 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>0.72199999999999998</v>
@@ -777,9 +788,9 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
         <v>0.81200000000000006</v>
@@ -815,7 +826,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,7 +864,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,7 +902,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,9 +940,9 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>0.74299999999999999</v>
@@ -967,9 +978,9 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>0.75</v>
@@ -1005,9 +1016,9 @@
         <v>0.72799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>0.74299999999999999</v>
@@ -1043,7 +1054,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1081,9 +1092,9 @@
         <v>0.73499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
         <v>0.58599999999999997</v>
@@ -1118,6 +1129,13 @@
       <c r="L12" s="2">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1125,6 +1143,552 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD127171-FCA5-4C12-8184-A4C937F3B875}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.318</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8259DA5-F0C7-45F3-9822-7494A1234E8A}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -1140,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1153,7 +1717,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1161,7 +1725,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1169,7 +1733,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1177,7 +1741,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1193,7 +1757,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1225,7 +1789,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -1251,11 +1815,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AACCBB-8F09-462B-8C04-200BD0753CF0}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1263,28 +1827,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
